--- a/Fees.xlsx
+++ b/Fees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmitc\SFSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Garrett DiDomizio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9737748-B82F-450E-A6F6-6758FFCB514F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D621A6F-3BA5-40E1-9A96-7EEDC12D9EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4536" yWindow="12" windowWidth="16866" windowHeight="12228" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="majorFees" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>Majors</t>
   </si>
@@ -395,6 +395,15 @@
   </si>
   <si>
     <t>MealPlan</t>
+  </si>
+  <si>
+    <t>Anthropology</t>
+  </si>
+  <si>
+    <t>Diagnostic Medical Sonography</t>
+  </si>
+  <si>
+    <t>Health Administration</t>
   </si>
 </sst>
 </file>
@@ -895,8 +904,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1252,15 +1261,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE66"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1450,104 +1459,104 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="3" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="4">
+        <v>280.51</v>
+      </c>
+      <c r="C3" s="4">
+        <v>681.99</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>22.75</v>
+      </c>
+      <c r="F3" s="4">
         <v>30</v>
       </c>
-      <c r="B3">
-        <v>280.51</v>
-      </c>
-      <c r="C3">
-        <v>681.99</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>22.75</v>
-      </c>
-      <c r="F3">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>100</v>
+      </c>
+      <c r="I3" s="4">
+        <v>55</v>
+      </c>
+      <c r="J3" s="4">
+        <v>145</v>
+      </c>
+      <c r="K3" s="4">
+        <v>150</v>
+      </c>
+      <c r="L3" s="4">
+        <v>150</v>
+      </c>
+      <c r="M3" s="4">
+        <v>175</v>
+      </c>
+      <c r="N3" s="4">
+        <v>50</v>
+      </c>
+      <c r="O3" s="4">
+        <v>25</v>
+      </c>
+      <c r="P3" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>50</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>200</v>
+      </c>
+      <c r="W3" s="4">
+        <v>50</v>
+      </c>
+      <c r="X3" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>30</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>55</v>
-      </c>
-      <c r="J3">
-        <v>145</v>
-      </c>
-      <c r="K3">
-        <v>150</v>
-      </c>
-      <c r="L3">
-        <v>150</v>
-      </c>
-      <c r="M3">
-        <v>175</v>
-      </c>
-      <c r="N3">
-        <v>50</v>
-      </c>
-      <c r="O3">
-        <v>25</v>
-      </c>
-      <c r="P3">
-        <v>50</v>
-      </c>
-      <c r="Q3">
-        <v>50</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>200</v>
-      </c>
-      <c r="W3">
-        <v>50</v>
-      </c>
-      <c r="X3">
-        <v>25</v>
-      </c>
-      <c r="Y3">
-        <v>70</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>24</v>
-      </c>
-      <c r="AE3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>31</v>
       </c>
       <c r="B4">
         <v>280.51</v>
@@ -1640,9 +1649,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>280.51</v>
@@ -1690,7 +1699,7 @@
         <v>50</v>
       </c>
       <c r="Q5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1735,9 +1744,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>280.51</v>
@@ -1830,9 +1839,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>280.51</v>
@@ -1925,9 +1934,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>280.51</v>
@@ -1975,7 +1984,7 @@
         <v>50</v>
       </c>
       <c r="Q8">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -2020,9 +2029,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>280.51</v>
@@ -2070,7 +2079,7 @@
         <v>50</v>
       </c>
       <c r="Q9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -2115,9 +2124,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>280.51</v>
@@ -2135,7 +2144,7 @@
         <v>30</v>
       </c>
       <c r="G10">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -2195,13 +2204,13 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>24</v>
@@ -2210,9 +2219,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>280.51</v>
@@ -2230,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -2260,7 +2269,7 @@
         <v>50</v>
       </c>
       <c r="Q11">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -2290,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD11">
         <v>24</v>
@@ -2305,9 +2314,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>280.51</v>
@@ -2400,9 +2409,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>280.51</v>
@@ -2495,9 +2504,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14">
         <v>280.51</v>
@@ -2515,7 +2524,7 @@
         <v>30</v>
       </c>
       <c r="G14">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>100</v>
@@ -2572,16 +2581,16 @@
         <v>70</v>
       </c>
       <c r="Z14">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AD14">
         <v>24</v>
@@ -2590,9 +2599,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>280.51</v>
@@ -2610,7 +2619,7 @@
         <v>30</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -2667,16 +2676,16 @@
         <v>70</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD15">
         <v>24</v>
@@ -2685,9 +2694,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>280.51</v>
@@ -2780,9 +2789,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>280.51</v>
@@ -2830,7 +2839,7 @@
         <v>50</v>
       </c>
       <c r="Q17">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2875,104 +2884,105 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="4">
         <v>280.51</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>681.99</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>22.75</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>30</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
         <v>100</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="4">
         <v>55</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="4">
         <v>145</v>
       </c>
-      <c r="K18">
-        <v>150</v>
-      </c>
-      <c r="L18">
-        <v>150</v>
-      </c>
-      <c r="M18">
+      <c r="K18" s="4">
+        <v>150</v>
+      </c>
+      <c r="L18" s="4">
+        <v>150</v>
+      </c>
+      <c r="M18" s="4">
         <v>175</v>
       </c>
-      <c r="N18">
-        <v>50</v>
-      </c>
-      <c r="O18">
-        <v>25</v>
-      </c>
-      <c r="P18">
-        <v>50</v>
-      </c>
-      <c r="Q18">
-        <v>50</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
+      <c r="N18" s="4">
+        <v>50</v>
+      </c>
+      <c r="O18" s="4">
+        <v>25</v>
+      </c>
+      <c r="P18" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>50</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
         <v>200</v>
       </c>
-      <c r="W18">
-        <v>50</v>
-      </c>
-      <c r="X18">
-        <v>25</v>
-      </c>
-      <c r="Y18">
+      <c r="W18" s="4">
+        <v>50</v>
+      </c>
+      <c r="X18" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y18" s="4">
         <v>70</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
         <v>24</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="AF18" s="4"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19">
         <v>280.51</v>
@@ -2990,7 +3000,7 @@
         <v>30</v>
       </c>
       <c r="G19">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>100</v>
@@ -3050,13 +3060,13 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AD19">
         <v>24</v>
@@ -3065,9 +3075,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>280.51</v>
@@ -3115,7 +3125,7 @@
         <v>50</v>
       </c>
       <c r="Q20">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -3160,9 +3170,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>280.51</v>
@@ -3255,9 +3265,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>280.51</v>
@@ -3305,7 +3315,7 @@
         <v>50</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -3350,9 +3360,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>280.51</v>
@@ -3370,7 +3380,7 @@
         <v>30</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -3400,7 +3410,7 @@
         <v>50</v>
       </c>
       <c r="Q23">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -3430,13 +3440,13 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD23">
         <v>24</v>
@@ -3445,9 +3455,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>280.51</v>
@@ -3495,7 +3505,7 @@
         <v>50</v>
       </c>
       <c r="Q24">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3540,9 +3550,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>280.51</v>
@@ -3590,7 +3600,7 @@
         <v>50</v>
       </c>
       <c r="Q25">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -3635,9 +3645,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>280.51</v>
@@ -3685,7 +3695,7 @@
         <v>50</v>
       </c>
       <c r="Q26">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -3730,9 +3740,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>280.51</v>
@@ -3780,7 +3790,7 @@
         <v>50</v>
       </c>
       <c r="Q27">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -3825,9 +3835,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>280.51</v>
@@ -3875,7 +3885,7 @@
         <v>50</v>
       </c>
       <c r="Q28">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3920,9 +3930,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29">
         <v>280.51</v>
@@ -4015,9 +4025,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30">
         <v>280.51</v>
@@ -4035,7 +4045,7 @@
         <v>30</v>
       </c>
       <c r="G30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -4065,7 +4075,7 @@
         <v>50</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -4092,16 +4102,16 @@
         <v>70</v>
       </c>
       <c r="Z30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD30">
         <v>24</v>
@@ -4110,9 +4120,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31">
         <v>280.51</v>
@@ -4205,104 +4215,104 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="4">
         <v>280.51</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>681.99</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>10</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>22.75</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="4">
         <v>30</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
         <v>100</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="4">
         <v>55</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="4">
         <v>145</v>
       </c>
-      <c r="K32">
-        <v>150</v>
-      </c>
-      <c r="L32">
-        <v>150</v>
-      </c>
-      <c r="M32">
+      <c r="K32" s="4">
+        <v>150</v>
+      </c>
+      <c r="L32" s="4">
+        <v>150</v>
+      </c>
+      <c r="M32" s="4">
         <v>175</v>
       </c>
-      <c r="N32">
-        <v>50</v>
-      </c>
-      <c r="O32">
-        <v>25</v>
-      </c>
-      <c r="P32">
-        <v>50</v>
-      </c>
-      <c r="Q32">
-        <v>50</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
+      <c r="N32" s="4">
+        <v>50</v>
+      </c>
+      <c r="O32" s="4">
+        <v>25</v>
+      </c>
+      <c r="P32" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>50</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
         <v>200</v>
       </c>
-      <c r="W32">
-        <v>50</v>
-      </c>
-      <c r="X32">
-        <v>25</v>
-      </c>
-      <c r="Y32">
+      <c r="W32" s="4">
+        <v>50</v>
+      </c>
+      <c r="X32" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y32" s="4">
         <v>70</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
+      <c r="Z32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="4">
         <v>24</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>280.51</v>
@@ -4320,7 +4330,7 @@
         <v>30</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H33">
         <v>100</v>
@@ -4377,16 +4387,16 @@
         <v>70</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD33">
         <v>24</v>
@@ -4395,9 +4405,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>280.51</v>
@@ -4445,7 +4455,7 @@
         <v>50</v>
       </c>
       <c r="Q34">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -4475,13 +4485,13 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AD34">
         <v>24</v>
@@ -4490,9 +4500,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <v>280.51</v>
@@ -4585,9 +4595,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>280.51</v>
@@ -4635,10 +4645,10 @@
         <v>50</v>
       </c>
       <c r="Q36">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4680,9 +4690,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B37">
         <v>280.51</v>
@@ -4730,7 +4740,7 @@
         <v>50</v>
       </c>
       <c r="Q37">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -4760,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD37">
         <v>24</v>
@@ -4775,9 +4785,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B38">
         <v>280.51</v>
@@ -4795,7 +4805,7 @@
         <v>30</v>
       </c>
       <c r="G38">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>100</v>
@@ -4825,7 +4835,7 @@
         <v>50</v>
       </c>
       <c r="Q38">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -4855,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AD38">
         <v>24</v>
@@ -4870,9 +4880,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>280.51</v>
@@ -4923,7 +4933,7 @@
         <v>75</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4950,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AD39">
         <v>24</v>
@@ -4965,9 +4975,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>280.51</v>
@@ -5060,9 +5070,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B41">
         <v>280.51</v>
@@ -5080,7 +5090,7 @@
         <v>30</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H41">
         <v>100</v>
@@ -5140,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD41">
         <v>24</v>
@@ -5155,9 +5165,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B42">
         <v>280.51</v>
@@ -5235,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD42">
         <v>24</v>
@@ -5250,9 +5260,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B43">
         <v>280.51</v>
@@ -5270,7 +5280,7 @@
         <v>30</v>
       </c>
       <c r="G43">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>100</v>
@@ -5300,7 +5310,7 @@
         <v>50</v>
       </c>
       <c r="Q43">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -5330,13 +5340,13 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AB43">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AD43">
         <v>24</v>
@@ -5345,15 +5355,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B44">
-        <v>296.67</v>
+        <v>280.51</v>
       </c>
       <c r="C44">
-        <v>296.67</v>
+        <v>681.99</v>
       </c>
       <c r="D44">
         <v>10</v>
@@ -5365,10 +5375,10 @@
         <v>30</v>
       </c>
       <c r="G44">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I44">
         <v>55</v>
@@ -5395,13 +5405,13 @@
         <v>50</v>
       </c>
       <c r="Q44">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R44">
         <v>0</v>
       </c>
       <c r="S44">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -5437,12 +5447,12 @@
         <v>24</v>
       </c>
       <c r="AE44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>280.51</v>
@@ -5460,7 +5470,7 @@
         <v>30</v>
       </c>
       <c r="G45">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>100</v>
@@ -5490,13 +5500,13 @@
         <v>50</v>
       </c>
       <c r="Q45">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R45">
         <v>0</v>
       </c>
       <c r="S45">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -5523,21 +5533,21 @@
         <v>0</v>
       </c>
       <c r="AB45">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AD45">
         <v>24</v>
       </c>
       <c r="AE45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B46">
         <v>280.51</v>
@@ -5555,7 +5565,7 @@
         <v>30</v>
       </c>
       <c r="G46">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H46">
         <v>100</v>
@@ -5585,13 +5595,13 @@
         <v>50</v>
       </c>
       <c r="Q46">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R46">
         <v>0</v>
       </c>
       <c r="S46">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -5615,13 +5625,13 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB46">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AC46">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AD46">
         <v>24</v>
@@ -5630,15 +5640,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B47">
-        <v>280.51</v>
+        <v>296.67</v>
       </c>
       <c r="C47">
-        <v>681.99</v>
+        <v>296.67</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -5650,10 +5660,10 @@
         <v>30</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H47">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>55</v>
@@ -5686,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -5722,12 +5732,12 @@
         <v>24</v>
       </c>
       <c r="AE47">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B48">
         <v>280.51</v>
@@ -5745,7 +5755,7 @@
         <v>30</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H48">
         <v>100</v>
@@ -5775,13 +5785,13 @@
         <v>50</v>
       </c>
       <c r="Q48">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -5808,21 +5818,21 @@
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AD48">
         <v>24</v>
       </c>
       <c r="AE48">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B49">
         <v>280.51</v>
@@ -5840,7 +5850,7 @@
         <v>30</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>100</v>
@@ -5876,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T49">
         <v>0</v>
@@ -5903,10 +5913,10 @@
         <v>0</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AD49">
         <v>24</v>
@@ -5915,9 +5925,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B50">
         <v>280.51</v>
@@ -5974,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -6010,9 +6020,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B51">
         <v>280.51</v>
@@ -6060,7 +6070,7 @@
         <v>50</v>
       </c>
       <c r="Q51">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -6105,9 +6115,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B52">
         <v>280.51</v>
@@ -6200,9 +6210,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B53">
         <v>280.51</v>
@@ -6259,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -6295,9 +6305,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B54">
         <v>280.51</v>
@@ -6315,7 +6325,7 @@
         <v>30</v>
       </c>
       <c r="G54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>100</v>
@@ -6372,16 +6382,16 @@
         <v>70</v>
       </c>
       <c r="Z54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AD54">
         <v>24</v>
@@ -6390,15 +6400,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B55">
-        <v>345</v>
+        <v>280.51</v>
       </c>
       <c r="C55">
-        <v>345</v>
+        <v>681.99</v>
       </c>
       <c r="D55">
         <v>10</v>
@@ -6410,10 +6420,10 @@
         <v>30</v>
       </c>
       <c r="G55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I55">
         <v>55</v>
@@ -6482,12 +6492,12 @@
         <v>24</v>
       </c>
       <c r="AE55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B56">
         <v>280.51</v>
@@ -6535,7 +6545,7 @@
         <v>50</v>
       </c>
       <c r="Q56">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R56">
         <v>0</v>
@@ -6580,9 +6590,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B57">
         <v>280.51</v>
@@ -6642,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="V57">
         <v>200</v>
@@ -6657,10 +6667,10 @@
         <v>70</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB57">
         <v>50</v>
@@ -6675,15 +6685,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B58">
-        <v>280.51</v>
+        <v>345</v>
       </c>
       <c r="C58">
-        <v>681.99</v>
+        <v>345</v>
       </c>
       <c r="D58">
         <v>10</v>
@@ -6695,10 +6705,10 @@
         <v>30</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>55</v>
@@ -6767,12 +6777,12 @@
         <v>24</v>
       </c>
       <c r="AE58">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B59">
         <v>280.51</v>
@@ -6865,9 +6875,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B60">
         <v>280.51</v>
@@ -6885,7 +6895,7 @@
         <v>30</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H60">
         <v>100</v>
@@ -6915,7 +6925,7 @@
         <v>50</v>
       </c>
       <c r="Q60">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -6927,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V60">
         <v>200</v>
@@ -6948,10 +6958,10 @@
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD60">
         <v>24</v>
@@ -6960,9 +6970,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B61">
         <v>280.51</v>
@@ -7010,7 +7020,7 @@
         <v>50</v>
       </c>
       <c r="Q61">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -7055,9 +7065,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B62">
         <v>280.51</v>
@@ -7105,7 +7115,7 @@
         <v>50</v>
       </c>
       <c r="Q62">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R62">
         <v>0</v>
@@ -7150,9 +7160,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B63">
         <v>280.51</v>
@@ -7200,7 +7210,7 @@
         <v>50</v>
       </c>
       <c r="Q63">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R63">
         <v>0</v>
@@ -7245,9 +7255,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B64">
         <v>280.51</v>
@@ -7295,7 +7305,7 @@
         <v>50</v>
       </c>
       <c r="Q64">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="R64">
         <v>0</v>
@@ -7340,9 +7350,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B65">
         <v>280.51</v>
@@ -7435,9 +7445,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B66">
         <v>280.51</v>
@@ -7527,6 +7537,291 @@
         <v>24</v>
       </c>
       <c r="AE66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67">
+        <v>280.51</v>
+      </c>
+      <c r="C67">
+        <v>681.99</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>22.75</v>
+      </c>
+      <c r="F67">
+        <v>30</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>100</v>
+      </c>
+      <c r="I67">
+        <v>55</v>
+      </c>
+      <c r="J67">
+        <v>145</v>
+      </c>
+      <c r="K67">
+        <v>150</v>
+      </c>
+      <c r="L67">
+        <v>150</v>
+      </c>
+      <c r="M67">
+        <v>175</v>
+      </c>
+      <c r="N67">
+        <v>50</v>
+      </c>
+      <c r="O67">
+        <v>25</v>
+      </c>
+      <c r="P67">
+        <v>50</v>
+      </c>
+      <c r="Q67">
+        <v>50</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>200</v>
+      </c>
+      <c r="W67">
+        <v>50</v>
+      </c>
+      <c r="X67">
+        <v>25</v>
+      </c>
+      <c r="Y67">
+        <v>70</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>24</v>
+      </c>
+      <c r="AE67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68">
+        <v>280.51</v>
+      </c>
+      <c r="C68">
+        <v>681.99</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>22.75</v>
+      </c>
+      <c r="F68">
+        <v>30</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>100</v>
+      </c>
+      <c r="I68">
+        <v>55</v>
+      </c>
+      <c r="J68">
+        <v>145</v>
+      </c>
+      <c r="K68">
+        <v>150</v>
+      </c>
+      <c r="L68">
+        <v>150</v>
+      </c>
+      <c r="M68">
+        <v>175</v>
+      </c>
+      <c r="N68">
+        <v>50</v>
+      </c>
+      <c r="O68">
+        <v>25</v>
+      </c>
+      <c r="P68">
+        <v>50</v>
+      </c>
+      <c r="Q68">
+        <v>50</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>200</v>
+      </c>
+      <c r="W68">
+        <v>50</v>
+      </c>
+      <c r="X68">
+        <v>25</v>
+      </c>
+      <c r="Y68">
+        <v>70</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>24</v>
+      </c>
+      <c r="AE68">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69">
+        <v>280.51</v>
+      </c>
+      <c r="C69">
+        <v>681.99</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>22.75</v>
+      </c>
+      <c r="F69">
+        <v>30</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>100</v>
+      </c>
+      <c r="I69">
+        <v>55</v>
+      </c>
+      <c r="J69">
+        <v>145</v>
+      </c>
+      <c r="K69">
+        <v>150</v>
+      </c>
+      <c r="L69">
+        <v>150</v>
+      </c>
+      <c r="M69">
+        <v>175</v>
+      </c>
+      <c r="N69">
+        <v>50</v>
+      </c>
+      <c r="O69">
+        <v>25</v>
+      </c>
+      <c r="P69">
+        <v>50</v>
+      </c>
+      <c r="Q69">
+        <v>50</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>200</v>
+      </c>
+      <c r="W69">
+        <v>50</v>
+      </c>
+      <c r="X69">
+        <v>25</v>
+      </c>
+      <c r="Y69">
+        <v>70</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>24</v>
+      </c>
+      <c r="AE69">
         <v>60</v>
       </c>
     </row>
@@ -7544,12 +7839,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>104</v>
       </c>
@@ -7557,7 +7852,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>97</v>
       </c>
@@ -7565,7 +7860,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
@@ -7573,7 +7868,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
@@ -7581,7 +7876,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>100</v>
       </c>
@@ -7589,7 +7884,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>101</v>
       </c>
@@ -7597,7 +7892,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -7605,7 +7900,7 @@
         <v>5616</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
@@ -7622,132 +7917,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AE5FBE-4C8B-44AB-8A0A-D37FA4B97A0B}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="16384" width="8.83984375" style="4"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>2395</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2395</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2302</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1414</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1104</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>868</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1414</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1104</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>868</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1895</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1895</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1895</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>1895</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -7758,6 +8050,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AFF455AED06B34C84956BCF24B32F82" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3d1c02a621d1e954a4a3ad144da77320">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ecfebb39-303b-4378-8b28-30847800edfb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1abc78b06c59255e9a933fffaac1c16a" ns2:_="">
     <xsd:import namespace="ecfebb39-303b-4378-8b28-30847800edfb"/>
@@ -7889,22 +8196,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80950748-077D-4BCC-A626-5CCF1502A321}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2FC9746-D700-4A02-9B66-D208F39A930D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CEC5E8A-4A51-4F49-88E6-8153E45FA9AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7920,21 +8229,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2FC9746-D700-4A02-9B66-D208F39A930D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80950748-077D-4BCC-A626-5CCF1502A321}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>